--- a/document/excel_upload_자료/TBL_EXP_MENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_MENU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\스타에셋프로젝트\DB\excelUploadTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247386D1-AC30-46B4-9D24-D41B33D64321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24630F-7B74-4A55-8D66-78345C14D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="177">
   <si>
     <t>MENU_ID</t>
   </si>
@@ -562,6 +562,30 @@
   </si>
   <si>
     <t>main_dashboard_folderMng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN_RST_MYRK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN_RST_ALRK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 실적 랭킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 실적 랭킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_result_myRanking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_result_allRanking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1116,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I25" sqref="I25:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,27 +1884,29 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D27" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="11">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>120</v>
@@ -1888,31 +1914,29 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="11">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>120</v>
@@ -1920,29 +1944,27 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C29" s="11"/>
       <c r="D29" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="H29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="11">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>120</v>
@@ -1950,10 +1972,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>54</v>
@@ -1962,17 +1984,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="H30" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="11">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>120</v>
@@ -1980,25 +2004,29 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="D31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="11">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>120</v>
@@ -2006,29 +2034,29 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="11">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>120</v>
@@ -2036,29 +2064,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>72</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="11">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>120</v>
@@ -2066,10 +2090,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>65</v>
@@ -2078,17 +2102,17 @@
         <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="11">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>120</v>
@@ -2096,10 +2120,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>65</v>
@@ -2108,17 +2132,17 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="11">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>120</v>
@@ -2126,10 +2150,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>65</v>
@@ -2138,17 +2162,17 @@
         <v>1</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="11">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>120</v>
@@ -2156,25 +2180,29 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="D37" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="11">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>120</v>
@@ -2182,29 +2210,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="11">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>120</v>
@@ -2212,29 +2240,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="11">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>120</v>
@@ -2242,10 +2266,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>82</v>
@@ -2254,17 +2278,17 @@
         <v>1</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="11">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>120</v>
@@ -2272,10 +2296,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>82</v>
@@ -2284,17 +2308,17 @@
         <v>1</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="11">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>120</v>
@@ -2302,10 +2326,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>82</v>
@@ -2314,17 +2338,17 @@
         <v>1</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="11">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>120</v>
@@ -2332,25 +2356,29 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="D43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="11">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>120</v>
@@ -2358,29 +2386,29 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D44" s="11">
         <v>1</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="11">
-        <v>810</v>
+        <v>750</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>120</v>
@@ -2388,29 +2416,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="11">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>120</v>
@@ -2418,10 +2442,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>99</v>
@@ -2430,17 +2454,17 @@
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="11">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>120</v>
@@ -2448,10 +2472,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>99</v>
@@ -2460,17 +2484,17 @@
         <v>1</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I47" s="11">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>120</v>
@@ -2478,10 +2502,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>99</v>
@@ -2490,17 +2514,17 @@
         <v>1</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="11">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>120</v>
@@ -2508,10 +2532,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>99</v>
@@ -2520,17 +2544,17 @@
         <v>1</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="11">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>120</v>
@@ -2538,10 +2562,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>99</v>
@@ -2550,15 +2574,17 @@
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I50" s="11">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>120</v>
@@ -2566,25 +2592,29 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I51" s="11">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>120</v>
@@ -2592,29 +2622,27 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="I52" s="11">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>120</v>
@@ -2622,29 +2650,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>121</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C53" s="11"/>
       <c r="D53" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>144</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="11">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>120</v>
@@ -2652,10 +2676,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>121</v>
@@ -2664,19 +2688,79 @@
         <v>1</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="11">
+        <v>910</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="11">
+        <v>920</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="11">
         <v>930</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>120</v>
       </c>
     </row>

--- a/document/excel_upload_자료/TBL_EXP_MENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_MENU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24630F-7B74-4A55-8D66-78345C14D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E016E-9FE1-4551-A59D-D63D34A41DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="177">
   <si>
     <t>MENU_ID</t>
   </si>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1433,7 +1433,9 @@
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="H11" s="11" t="s">
         <v>6</v>
       </c>

--- a/document/excel_upload_자료/TBL_EXP_MENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_MENU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E016E-9FE1-4551-A59D-D63D34A41DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7D605-E9C1-4155-801D-E494EA3A6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
   <si>
     <t>MENU_ID</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>컨설팅 상품 관리</t>
-  </si>
-  <si>
-    <t>main_operation_consultingMng</t>
   </si>
   <si>
     <t>MN_MNG_CUS</t>
@@ -586,6 +583,22 @@
   </si>
   <si>
     <t>main_result_allRanking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN_MNG_WKH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 히스토리 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_operation_consultingMng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_operation_workHistory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1172,36 +1185,36 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1212,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>2</v>
@@ -1224,56 +1237,56 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -1291,18 +1304,18 @@
         <v>0</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1314,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>6</v>
@@ -1323,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1331,14 +1344,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1349,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1372,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>6</v>
@@ -1381,7 +1394,7 @@
         <v>110</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1411,7 +1424,7 @@
         <v>120</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1434,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>6</v>
@@ -1443,7 +1456,7 @@
         <v>130</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1473,15 +1486,15 @@
         <v>140</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>5</v>
@@ -1490,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
@@ -1503,7 +1516,7 @@
         <v>150</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1529,7 +1542,7 @@
         <v>200</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1559,7 +1572,7 @@
         <v>210</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1585,15 +1598,15 @@
         <v>300</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>26</v>
@@ -1602,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
@@ -1615,7 +1628,7 @@
         <v>310</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1645,7 +1658,7 @@
         <v>320</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1675,7 +1688,7 @@
         <v>330</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1705,7 +1718,7 @@
         <v>340</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1735,7 +1748,7 @@
         <v>350</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1761,7 +1774,7 @@
         <v>400</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1791,7 +1804,7 @@
         <v>410</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1821,7 +1834,7 @@
         <v>420</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1851,7 +1864,7 @@
         <v>430</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1881,15 +1894,15 @@
         <v>440</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>40</v>
@@ -1898,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
@@ -1911,15 +1924,15 @@
         <v>450</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>40</v>
@@ -1928,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
@@ -1941,7 +1954,7 @@
         <v>460</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1960,7 +1973,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>6</v>
@@ -1969,7 +1982,7 @@
         <v>500</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1992,7 +2005,7 @@
         <v>58</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>6</v>
@@ -2001,7 +2014,7 @@
         <v>510</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2031,7 +2044,7 @@
         <v>520</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2061,7 +2074,7 @@
         <v>530</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2087,7 +2100,7 @@
         <v>600</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2117,7 +2130,7 @@
         <v>610</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2147,7 +2160,7 @@
         <v>620</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2177,7 +2190,7 @@
         <v>630</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2207,7 +2220,7 @@
         <v>640</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2237,7 +2250,7 @@
         <v>650</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2263,7 +2276,7 @@
         <v>700</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2293,7 +2306,7 @@
         <v>710</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,7 +2336,7 @@
         <v>720</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2353,7 +2366,7 @@
         <v>730</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2383,7 +2396,7 @@
         <v>740</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2413,7 +2426,7 @@
         <v>750</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2439,7 +2452,7 @@
         <v>800</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2469,7 +2482,7 @@
         <v>810</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2499,7 +2512,7 @@
         <v>820</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2529,7 +2542,7 @@
         <v>830</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2559,7 +2572,7 @@
         <v>840</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2579,7 +2592,7 @@
         <v>114</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
@@ -2589,15 +2602,15 @@
         <v>850</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>99</v>
@@ -2606,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>33</v>
@@ -2619,15 +2632,15 @@
         <v>860</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>99</v>
@@ -2636,104 +2649,104 @@
         <v>1</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="I52" s="11">
         <v>870</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D53" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="I53" s="11">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="11" t="s">
         <v>121</v>
       </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="11">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="11">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="11">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2741,29 +2754,59 @@
         <v>157</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I56" s="11">
+        <v>920</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="11">
+        <v>1</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="11">
         <v>930</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>120</v>
+      <c r="J57" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/document/excel_upload_자료/TBL_EXP_MENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_MENU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7D605-E9C1-4155-801D-E494EA3A6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752134BF-23C8-458D-A91F-F621BF774746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>main_biz_adviceStatus</t>
   </si>
   <si>
-    <t>MN_BIZ_CST</t>
-  </si>
-  <si>
     <t>고객리스트</t>
   </si>
   <si>
@@ -599,6 +596,10 @@
   </si>
   <si>
     <t>main_operation_workHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN_BIZ_CST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1155,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1167,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1185,36 +1186,36 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1225,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>2</v>
@@ -1237,56 +1238,56 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -1304,18 +1305,18 @@
         <v>0</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1327,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>6</v>
@@ -1336,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1344,14 +1345,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1362,7 +1363,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1385,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>6</v>
@@ -1394,7 +1395,7 @@
         <v>110</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1424,7 +1425,7 @@
         <v>120</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1447,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>6</v>
@@ -1456,7 +1457,7 @@
         <v>130</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1486,15 +1487,15 @@
         <v>140</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>5</v>
@@ -1503,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
@@ -1516,7 +1517,7 @@
         <v>150</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1542,7 +1543,7 @@
         <v>200</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1572,7 +1573,7 @@
         <v>210</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1598,15 +1599,15 @@
         <v>300</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>26</v>
@@ -1615,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
@@ -1628,15 +1629,15 @@
         <v>310</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>26</v>
@@ -1645,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
@@ -1658,15 +1659,15 @@
         <v>320</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>26</v>
@@ -1675,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
@@ -1688,15 +1689,15 @@
         <v>330</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>26</v>
@@ -1705,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
@@ -1718,15 +1719,15 @@
         <v>340</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>26</v>
@@ -1735,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
@@ -1748,22 +1749,22 @@
         <v>350</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1774,27 +1775,27 @@
         <v>400</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11" t="s">
@@ -1804,27 +1805,27 @@
         <v>410</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
@@ -1834,27 +1835,27 @@
         <v>420</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
@@ -1864,27 +1865,27 @@
         <v>430</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
@@ -1894,27 +1895,27 @@
         <v>440</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
@@ -1924,27 +1925,27 @@
         <v>450</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
@@ -1954,26 +1955,26 @@
         <v>460</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>6</v>
@@ -1982,30 +1983,30 @@
         <v>500</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="G30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>6</v>
@@ -2014,27 +2015,27 @@
         <v>510</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
@@ -2044,27 +2045,27 @@
         <v>520</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
@@ -2074,22 +2075,22 @@
         <v>530</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2100,27 +2101,27 @@
         <v>600</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
@@ -2130,27 +2131,27 @@
         <v>610</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="11">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
@@ -2160,27 +2161,27 @@
         <v>620</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
@@ -2190,27 +2191,27 @@
         <v>630</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11" t="s">
@@ -2220,27 +2221,27 @@
         <v>640</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
@@ -2250,22 +2251,22 @@
         <v>650</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -2276,27 +2277,27 @@
         <v>700</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
@@ -2306,27 +2307,27 @@
         <v>710</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
@@ -2336,27 +2337,27 @@
         <v>720</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
@@ -2365,448 +2366,448 @@
       <c r="I42" s="11">
         <v>730</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>119</v>
+      <c r="J42" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>82</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>95</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="11">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D44" s="11">
         <v>1</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="11">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="D45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="11">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="11">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I47" s="11">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="11">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="11">
         <v>1</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="11">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>178</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="I50" s="11">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="11">
         <v>1</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="I51" s="11">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C52" s="11"/>
       <c r="D52" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>179</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="I52" s="11">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="I53" s="11">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="11">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="11">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I56" s="11">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I57" s="11">
-        <v>930</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>119</v>
+        <v>950</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/document/excel_upload_자료/TBL_EXP_MENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_MENU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECFAF5C-F3E3-4E0B-B134-4E23836436B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976A3C4-D996-42FA-B336-6F3729887E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="186">
   <si>
     <t>MENU_ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>FA 대시보드</t>
   </si>
   <si>
     <t>main_dashboard_fa</t>
@@ -454,9 +451,6 @@
     <t>실적 현황</t>
   </si>
   <si>
-    <t>{'BUYER_ID':'25FC'}</t>
-  </si>
-  <si>
     <t>메뉴ID</t>
   </si>
   <si>
@@ -568,9 +562,6 @@
     <t>MN_DSH_FA</t>
   </si>
   <si>
-    <t>FA 대시보드 상세</t>
-  </si>
-  <si>
     <t>고객 대시보드</t>
   </si>
   <si>
@@ -580,8 +571,28 @@
     <t>main_biz_contractMng</t>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>MY 대시보드</t>
+  </si>
+  <si>
+    <t>MY 대시보드 상세</t>
+  </si>
+  <si>
+    <t>MN_DSH_REPORT</t>
+  </si>
+  <si>
+    <t>기업자문보고서</t>
+  </si>
+  <si>
+    <t>main_dashboard_report</t>
+  </si>
+  <si>
+    <t>MN_MNG_UPG</t>
+  </si>
+  <si>
+    <t>직급승급관리</t>
+  </si>
+  <si>
+    <t>main_operation_rankPromote</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1164,36 +1175,36 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1204,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>2</v>
@@ -1216,63 +1227,63 @@
         <v>3</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13">
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1283,30 +1294,30 @@
         <v>0</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="13">
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>6</v>
@@ -1315,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1323,14 +1334,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13">
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -1341,15 +1352,15 @@
         <v>100</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -1358,14 +1369,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1373,15 +1382,15 @@
         <v>110</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>5</v>
@@ -1390,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
@@ -1403,15 +1412,15 @@
         <v>120</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>5</v>
@@ -1420,30 +1429,28 @@
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="13">
         <v>130</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
+      <c r="J11" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>5</v>
@@ -1452,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
@@ -1465,15 +1472,15 @@
         <v>140</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -1482,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
@@ -1495,1331 +1502,1391 @@
         <v>150</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="13">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="13">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="13">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="13">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="13">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="13">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="13">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="13">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="13">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="13">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="C24" s="13"/>
       <c r="D24" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="13">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="13">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="13">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="13">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="13">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="13">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>129</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="I30" s="13">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="13">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="13">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="13">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="D34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="H34" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="13">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="13">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="13">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="13">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="13">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="13">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="D40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="13">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="13" t="s">
         <v>114</v>
       </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>165</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="13">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="13">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="13">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="D44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="13">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="13" t="s">
         <v>96</v>
       </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>100</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="13">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="13">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I47" s="13">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="13">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="13">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="13">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="I51" s="13">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="D52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I52" s="13">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D53" s="13">
         <v>1</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="13">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="13">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="13">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I56" s="13">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I57" s="13">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I58" s="13">
+        <v>940</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="13">
         <v>945</v>
       </c>
-      <c r="J58" s="13" t="s">
-        <v>113</v>
+      <c r="J59" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="13">
+        <v>950</v>
+      </c>
+      <c r="J60" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
